--- a/Crono 2019-1.xlsx
+++ b/Crono 2019-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\1143848922\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\1143848922\Documents\GIT\AplicacionesMoviles191\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,9 +90,6 @@
     <t>Layouts nivel 2 (ListView, GridView y RecyclerView). Georeferenciación. Ejercicio Básico Android</t>
   </si>
   <si>
-    <t>Práctico 1</t>
-  </si>
-  <si>
     <t>Firebase 2. Arquitectura de bases de datos no relaciones</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Despliege de aplicaciones</t>
+  </si>
+  <si>
+    <t>Pitch en primeta hora de clase + Prático 1</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -859,7 +859,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="15.5">
+    <row r="5" spans="1:12" ht="31">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -943,8 +943,8 @@
       <c r="C8" s="22">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>11</v>
+      <c r="D8" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="4"/>
@@ -967,8 +967,8 @@
       <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>23</v>
+      <c r="D9" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="4"/>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4"/>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="4"/>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="4"/>
@@ -1180,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>18</v>

--- a/Crono 2019-1.xlsx
+++ b/Crono 2019-1.xlsx
@@ -54,9 +54,6 @@
     <t>Diseño: Estilos y navegación-Diseño de la experiencia Móvil- estilos android xml. Ejecicio de Diseño calificable</t>
   </si>
   <si>
-    <t>Entrega 1: Informe escrito. Presentación Oral</t>
-  </si>
-  <si>
     <t>Firebase 3. Storage y formularios de registro con intercambio de archivos (Fotos, documentos)</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>EVALUACION PRÁCTICA 2</t>
   </si>
   <si>
-    <t>Entrega 2: Informe escrito. Presentación Oral</t>
-  </si>
-  <si>
     <t>Consumo de servicios web</t>
   </si>
   <si>
@@ -96,20 +90,26 @@
     <t>Base de datos: Diferencia entre relacionales y NO relacionales. Firebase Database. Procesos de autenticación</t>
   </si>
   <si>
-    <t>Persistencia SQL, SharedPreferences</t>
-  </si>
-  <si>
     <t>Despliege de aplicaciones</t>
   </si>
   <si>
     <t>Pitch en primeta hora de clase + Prático 1</t>
+  </si>
+  <si>
+    <t>Persistencia, SQL y Shared Preferences</t>
+  </si>
+  <si>
+    <t>Entrega y expo 1. Apertura de cámara y galería</t>
+  </si>
+  <si>
+    <t>Entrega 2. Implementación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,6 +144,19 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -326,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -459,6 +472,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,8 +765,8 @@
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -848,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="4"/>
@@ -872,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="4"/>
@@ -944,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="4"/>
@@ -968,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="4"/>
@@ -992,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4"/>
@@ -1015,8 +1034,8 @@
       <c r="C11" s="27">
         <v>3</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
+      <c r="D11" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="4"/>
@@ -1040,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="4"/>
@@ -1064,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1085,7 +1104,7 @@
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="4"/>
@@ -1108,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
@@ -1131,8 +1150,8 @@
       <c r="C16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>16</v>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
@@ -1155,8 +1174,8 @@
       <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>17</v>
+      <c r="D17" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
@@ -1179,11 +1198,11 @@
       <c r="C18" s="38">
         <v>4</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>26</v>
+      <c r="D18" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1204,7 +1223,7 @@
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
@@ -1226,7 +1245,7 @@
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" s="42"/>
       <c r="G20" s="4"/>
@@ -2637,6 +2656,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>